--- a/timetabling_GA/results/HK2_CT03/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK2_CT03/TKB_Semester_Schedule.xlsx
@@ -644,8 +644,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -656,7 +656,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -664,7 +665,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -673,8 +673,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -685,16 +685,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -852,8 +852,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -864,7 +864,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -872,7 +873,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -881,8 +881,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -893,16 +893,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -1060,8 +1060,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1072,7 +1072,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -1080,7 +1081,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -1089,8 +1089,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -1101,16 +1101,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -1268,8 +1268,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1280,7 +1280,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -1288,7 +1289,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -1297,8 +1297,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -1309,16 +1309,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -1476,8 +1476,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1488,7 +1488,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -1496,7 +1497,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -1505,8 +1505,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -1517,16 +1517,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -1684,8 +1684,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1696,7 +1696,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -1704,7 +1705,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -1713,8 +1713,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -1725,16 +1725,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -1892,8 +1892,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -1904,7 +1904,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -1912,7 +1913,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -1921,8 +1921,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -1933,16 +1933,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2100,8 +2100,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2112,7 +2112,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -2120,7 +2121,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2129,8 +2129,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -2141,16 +2141,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2308,8 +2308,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2320,7 +2320,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -2328,7 +2329,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2337,8 +2337,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -2349,16 +2349,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2516,8 +2516,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2528,7 +2528,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -2536,7 +2537,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2545,8 +2545,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -2557,16 +2557,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2724,8 +2724,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2736,7 +2736,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -2744,7 +2745,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2753,8 +2753,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -2765,16 +2765,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -2932,8 +2932,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -2944,7 +2944,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -2952,7 +2953,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -2961,8 +2961,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -2973,16 +2973,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -3140,8 +3140,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -3152,7 +3152,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -3160,7 +3161,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -3169,8 +3169,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -3181,16 +3181,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -3348,8 +3348,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -3360,7 +3360,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -3368,7 +3369,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -3377,8 +3377,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -3389,16 +3389,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
@@ -3556,8 +3556,8 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>T1
+(17:30-19:30)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -3568,7 +3568,8 @@
       <c r="C9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
@@ -3576,7 +3577,6 @@
 GV: Ngô Văn I</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
@@ -3585,8 +3585,8 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>T1
-(17:30-19:30)</t>
+          <t>T2
+(19:30-21:30)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -3597,16 +3597,16 @@
       <c r="C10" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Ngữ pháp tiếng Anh
 (Lý thuyết)
-Phòng: R102
+Phòng: R103
 GV: Ngô Văn I</t>
         </is>
       </c>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr"/>
